--- a/Document/支付结算案例综合.xlsx
+++ b/Document/支付结算案例综合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="主流程" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="469">
   <si>
     <t>制单</t>
   </si>
@@ -1837,6 +1837,10 @@
   </si>
   <si>
     <t>最终余额提示</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2329,14 +2333,14 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2435,20 +2439,20 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4973,10 +4977,10 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5037,16 +5041,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5319,16 +5323,16 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6271,19 +6275,19 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.88671875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="23" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" customWidth="1"/>
+    <col min="6" max="6" width="41.5" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.875" customWidth="1"/>
+    <col min="10" max="10" width="16.625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6343,7 +6347,9 @@
       <c r="F2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>203</v>
       </c>
@@ -6586,7 +6592,9 @@
       <c r="F9" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>223</v>
       </c>
@@ -6622,7 +6630,9 @@
       <c r="G10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="I10" s="10" t="s">
         <v>231</v>
       </c>
@@ -6959,21 +6969,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="27.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
     <col min="16" max="16" width="19" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7692,21 +7702,21 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="35.125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/Document/支付结算案例综合.xlsx
+++ b/Document/支付结算案例综合.xlsx
@@ -6970,7 +6970,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6979,7 +6979,7 @@
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="8" width="22.625" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="13.875" customWidth="1"/>
